--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Kitl-Kit.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Kitl-Kit.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>86.85322066666667</v>
+        <v>170.8510486666667</v>
       </c>
       <c r="H2">
-        <v>260.559662</v>
+        <v>512.553146</v>
       </c>
       <c r="I2">
-        <v>0.748108865703641</v>
+        <v>0.8284864843875368</v>
       </c>
       <c r="J2">
-        <v>0.748108865703641</v>
+        <v>0.8284864843875368</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.48703633333333</v>
+        <v>22.56839366666667</v>
       </c>
       <c r="N2">
-        <v>31.461109</v>
+        <v>67.705181</v>
       </c>
       <c r="O2">
-        <v>0.9410122188791445</v>
+        <v>0.9671969057210177</v>
       </c>
       <c r="P2">
-        <v>0.9410122188791445</v>
+        <v>0.9671969057210175</v>
       </c>
       <c r="Q2">
-        <v>910.832880798351</v>
+        <v>3855.833724672158</v>
       </c>
       <c r="R2">
-        <v>8197.495927185159</v>
+        <v>34702.50352204942</v>
       </c>
       <c r="S2">
-        <v>0.7039795836789432</v>
+        <v>0.8013095641313098</v>
       </c>
       <c r="T2">
-        <v>0.7039795836789432</v>
+        <v>0.8013095641313096</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>86.85322066666667</v>
+        <v>170.8510486666667</v>
       </c>
       <c r="H3">
-        <v>260.559662</v>
+        <v>512.553146</v>
       </c>
       <c r="I3">
-        <v>0.748108865703641</v>
+        <v>0.8284864843875368</v>
       </c>
       <c r="J3">
-        <v>0.748108865703641</v>
+        <v>0.8284864843875368</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -617,28 +617,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.2047153333333334</v>
+        <v>0.2726246666666667</v>
       </c>
       <c r="N3">
-        <v>0.6141460000000001</v>
+        <v>0.817874</v>
       </c>
       <c r="O3">
-        <v>0.01836931082676555</v>
+        <v>0.01168367310131955</v>
       </c>
       <c r="P3">
-        <v>0.01836931082676555</v>
+        <v>0.01168367310131955</v>
       </c>
       <c r="Q3">
-        <v>17.78018601985023</v>
+        <v>46.57821019240044</v>
       </c>
       <c r="R3">
-        <v>160.021674178652</v>
+        <v>419.203891731604</v>
       </c>
       <c r="S3">
-        <v>0.01374224428636919</v>
+        <v>0.009679765252445465</v>
       </c>
       <c r="T3">
-        <v>0.01374224428636919</v>
+        <v>0.009679765252445464</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>86.85322066666667</v>
+        <v>170.8510486666667</v>
       </c>
       <c r="H4">
-        <v>260.559662</v>
+        <v>512.553146</v>
       </c>
       <c r="I4">
-        <v>0.748108865703641</v>
+        <v>0.8284864843875368</v>
       </c>
       <c r="J4">
-        <v>0.748108865703641</v>
+        <v>0.8284864843875368</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4526693333333333</v>
+        <v>0.4927966666666667</v>
       </c>
       <c r="N4">
-        <v>1.358008</v>
+        <v>1.47839</v>
       </c>
       <c r="O4">
-        <v>0.04061847029409005</v>
+        <v>0.02111942117766284</v>
       </c>
       <c r="P4">
-        <v>0.04061847029409005</v>
+        <v>0.02111942117766283</v>
       </c>
       <c r="Q4">
-        <v>39.31578949703289</v>
+        <v>84.19482727943777</v>
       </c>
       <c r="R4">
-        <v>353.842105473296</v>
+        <v>757.75344551494</v>
       </c>
       <c r="S4">
-        <v>0.03038703773832874</v>
+        <v>0.01749715500378158</v>
       </c>
       <c r="T4">
-        <v>0.03038703773832874</v>
+        <v>0.01749715500378157</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.580369333333335</v>
+        <v>8.580369333333332</v>
       </c>
       <c r="H5">
         <v>25.741108</v>
       </c>
       <c r="I5">
-        <v>0.07390687783374129</v>
+        <v>0.04160770495233658</v>
       </c>
       <c r="J5">
-        <v>0.07390687783374128</v>
+        <v>0.04160770495233659</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.48703633333333</v>
+        <v>22.56839366666667</v>
       </c>
       <c r="N5">
-        <v>31.461109</v>
+        <v>67.705181</v>
       </c>
       <c r="O5">
-        <v>0.9410122188791445</v>
+        <v>0.9671969057210177</v>
       </c>
       <c r="P5">
-        <v>0.9410122188791445</v>
+        <v>0.9671969057210175</v>
       </c>
       <c r="Q5">
-        <v>89.98264495208581</v>
+        <v>193.6451529200608</v>
       </c>
       <c r="R5">
-        <v>809.8438045687722</v>
+        <v>1742.806376280548</v>
       </c>
       <c r="S5">
-        <v>0.06954727510075875</v>
+        <v>0.04024284348405301</v>
       </c>
       <c r="T5">
-        <v>0.06954727510075874</v>
+        <v>0.040242843484053</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.580369333333335</v>
+        <v>8.580369333333332</v>
       </c>
       <c r="H6">
         <v>25.741108</v>
       </c>
       <c r="I6">
-        <v>0.07390687783374129</v>
+        <v>0.04160770495233658</v>
       </c>
       <c r="J6">
-        <v>0.07390687783374128</v>
+        <v>0.04160770495233659</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,28 +803,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.2047153333333334</v>
+        <v>0.2726246666666667</v>
       </c>
       <c r="N6">
-        <v>0.6141460000000001</v>
+        <v>0.817874</v>
       </c>
       <c r="O6">
-        <v>0.01836931082676555</v>
+        <v>0.01168367310131955</v>
       </c>
       <c r="P6">
-        <v>0.01836931082676555</v>
+        <v>0.01168367310131955</v>
       </c>
       <c r="Q6">
-        <v>1.756533168196445</v>
+        <v>2.339220329376889</v>
       </c>
       <c r="R6">
-        <v>15.80879851376801</v>
+        <v>21.052982964392</v>
       </c>
       <c r="S6">
-        <v>0.001357618411163783</v>
+        <v>0.0004861308231592553</v>
       </c>
       <c r="T6">
-        <v>0.001357618411163783</v>
+        <v>0.0004861308231592552</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,46 +847,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.580369333333335</v>
+        <v>8.580369333333332</v>
       </c>
       <c r="H7">
         <v>25.741108</v>
       </c>
       <c r="I7">
-        <v>0.07390687783374129</v>
+        <v>0.04160770495233658</v>
       </c>
       <c r="J7">
-        <v>0.07390687783374128</v>
+        <v>0.04160770495233659</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4526693333333333</v>
+        <v>0.4927966666666667</v>
       </c>
       <c r="N7">
-        <v>1.358008</v>
+        <v>1.47839</v>
       </c>
       <c r="O7">
-        <v>0.04061847029409005</v>
+        <v>0.02111942117766284</v>
       </c>
       <c r="P7">
-        <v>0.04061847029409005</v>
+        <v>0.02111942117766283</v>
       </c>
       <c r="Q7">
-        <v>3.884070065873778</v>
+        <v>4.228377406235555</v>
       </c>
       <c r="R7">
-        <v>34.956630592864</v>
+        <v>38.05539665612</v>
       </c>
       <c r="S7">
-        <v>0.003001984321818763</v>
+        <v>0.000878730645124324</v>
       </c>
       <c r="T7">
-        <v>0.003001984321818762</v>
+        <v>0.000878730645124324</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>19.48422366666667</v>
+        <v>24.73238366666666</v>
       </c>
       <c r="H8">
-        <v>58.452671</v>
+        <v>74.19715099999999</v>
       </c>
       <c r="I8">
-        <v>0.1678270575863662</v>
+        <v>0.1199316349207643</v>
       </c>
       <c r="J8">
-        <v>0.1678270575863662</v>
+        <v>0.1199316349207643</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.48703633333333</v>
+        <v>22.56839366666667</v>
       </c>
       <c r="N8">
-        <v>31.461109</v>
+        <v>67.705181</v>
       </c>
       <c r="O8">
-        <v>0.9410122188791445</v>
+        <v>0.9671969057210177</v>
       </c>
       <c r="P8">
-        <v>0.9410122188791445</v>
+        <v>0.9671969057210175</v>
       </c>
       <c r="Q8">
-        <v>204.3317615191266</v>
+        <v>558.17017090437</v>
       </c>
       <c r="R8">
-        <v>1838.985853672139</v>
+        <v>5023.53153813933</v>
       </c>
       <c r="S8">
-        <v>0.1579273118473044</v>
+        <v>0.115997506193426</v>
       </c>
       <c r="T8">
-        <v>0.1579273118473044</v>
+        <v>0.115997506193426</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>19.48422366666667</v>
+        <v>24.73238366666666</v>
       </c>
       <c r="H9">
-        <v>58.452671</v>
+        <v>74.19715099999999</v>
       </c>
       <c r="I9">
-        <v>0.1678270575863662</v>
+        <v>0.1199316349207643</v>
       </c>
       <c r="J9">
-        <v>0.1678270575863662</v>
+        <v>0.1199316349207643</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -989,28 +989,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.2047153333333334</v>
+        <v>0.2726246666666667</v>
       </c>
       <c r="N9">
-        <v>0.6141460000000001</v>
+        <v>0.817874</v>
       </c>
       <c r="O9">
-        <v>0.01836931082676555</v>
+        <v>0.01168367310131955</v>
       </c>
       <c r="P9">
-        <v>0.01836931082676555</v>
+        <v>0.01168367310131955</v>
       </c>
       <c r="Q9">
-        <v>3.98871934266289</v>
+        <v>6.742657852997111</v>
       </c>
       <c r="R9">
-        <v>35.89847408396601</v>
+        <v>60.68392067697399</v>
       </c>
       <c r="S9">
-        <v>0.003082867385945443</v>
+        <v>0.001401242016921011</v>
       </c>
       <c r="T9">
-        <v>0.003082867385945442</v>
+        <v>0.00140124201692101</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>19.48422366666667</v>
+        <v>24.73238366666666</v>
       </c>
       <c r="H10">
-        <v>58.452671</v>
+        <v>74.19715099999999</v>
       </c>
       <c r="I10">
-        <v>0.1678270575863662</v>
+        <v>0.1199316349207643</v>
       </c>
       <c r="J10">
-        <v>0.1678270575863662</v>
+        <v>0.1199316349207643</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4526693333333333</v>
+        <v>0.4927966666666667</v>
       </c>
       <c r="N10">
-        <v>1.358008</v>
+        <v>1.47839</v>
       </c>
       <c r="O10">
-        <v>0.04061847029409005</v>
+        <v>0.02111942117766284</v>
       </c>
       <c r="P10">
-        <v>0.04061847029409005</v>
+        <v>0.02111942117766283</v>
       </c>
       <c r="Q10">
-        <v>8.819910537707557</v>
+        <v>12.18803622965444</v>
       </c>
       <c r="R10">
-        <v>79.379194839368</v>
+        <v>109.69232606689</v>
       </c>
       <c r="S10">
-        <v>0.006816878353116356</v>
+        <v>0.002532886710417317</v>
       </c>
       <c r="T10">
-        <v>0.006816878353116354</v>
+        <v>0.002532886710417317</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.179220666666667</v>
+        <v>2.056881333333333</v>
       </c>
       <c r="H11">
-        <v>3.537662</v>
+        <v>6.170643999999999</v>
       </c>
       <c r="I11">
-        <v>0.01015719887625151</v>
+        <v>0.009974175739362347</v>
       </c>
       <c r="J11">
-        <v>0.01015719887625151</v>
+        <v>0.009974175739362347</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.48703633333333</v>
+        <v>22.56839366666667</v>
       </c>
       <c r="N11">
-        <v>31.461109</v>
+        <v>67.705181</v>
       </c>
       <c r="O11">
-        <v>0.9410122188791445</v>
+        <v>0.9671969057210177</v>
       </c>
       <c r="P11">
-        <v>0.9410122188791445</v>
+        <v>0.9671969057210175</v>
       </c>
       <c r="Q11">
-        <v>12.36652997635089</v>
+        <v>46.42050765628488</v>
       </c>
       <c r="R11">
-        <v>111.298769787158</v>
+        <v>417.7845689065639</v>
       </c>
       <c r="S11">
-        <v>0.00955804825213819</v>
+        <v>0.009646991912228906</v>
       </c>
       <c r="T11">
-        <v>0.00955804825213819</v>
+        <v>0.009646991912228904</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.179220666666667</v>
+        <v>2.056881333333333</v>
       </c>
       <c r="H12">
-        <v>3.537662</v>
+        <v>6.170643999999999</v>
       </c>
       <c r="I12">
-        <v>0.01015719887625151</v>
+        <v>0.009974175739362347</v>
       </c>
       <c r="J12">
-        <v>0.01015719887625151</v>
+        <v>0.009974175739362347</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1175,28 +1175,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.2047153333333334</v>
+        <v>0.2726246666666667</v>
       </c>
       <c r="N12">
-        <v>0.6141460000000001</v>
+        <v>0.817874</v>
       </c>
       <c r="O12">
-        <v>0.01836931082676555</v>
+        <v>0.01168367310131955</v>
       </c>
       <c r="P12">
-        <v>0.01836931082676555</v>
+        <v>0.01168367310131955</v>
       </c>
       <c r="Q12">
-        <v>0.2414045518502222</v>
+        <v>0.5607565878728888</v>
       </c>
       <c r="R12">
-        <v>2.172640966652</v>
+        <v>5.046809290855999</v>
       </c>
       <c r="S12">
-        <v>0.0001865807432871378</v>
+        <v>0.0001165350087938219</v>
       </c>
       <c r="T12">
-        <v>0.0001865807432871378</v>
+        <v>0.0001165350087938219</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.179220666666667</v>
+        <v>2.056881333333333</v>
       </c>
       <c r="H13">
-        <v>3.537662</v>
+        <v>6.170643999999999</v>
       </c>
       <c r="I13">
-        <v>0.01015719887625151</v>
+        <v>0.009974175739362347</v>
       </c>
       <c r="J13">
-        <v>0.01015719887625151</v>
+        <v>0.009974175739362347</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.4526693333333333</v>
+        <v>0.4927966666666667</v>
       </c>
       <c r="N13">
-        <v>1.358008</v>
+        <v>1.47839</v>
       </c>
       <c r="O13">
-        <v>0.04061847029409005</v>
+        <v>0.02111942117766284</v>
       </c>
       <c r="P13">
-        <v>0.04061847029409005</v>
+        <v>0.02111942117766283</v>
       </c>
       <c r="Q13">
-        <v>0.5337970330328888</v>
+        <v>1.013624264795556</v>
       </c>
       <c r="R13">
-        <v>4.804173297296</v>
+        <v>9.122618383159999</v>
       </c>
       <c r="S13">
-        <v>0.0004125698808261869</v>
+        <v>0.00021064881833962</v>
       </c>
       <c r="T13">
-        <v>0.0004125698808261869</v>
+        <v>0.00021064881833962</v>
       </c>
     </row>
   </sheetData>
